--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/peopleUpgrade.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/peopleUpgrade.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27360" windowHeight="11985"/>
+    <workbookView windowWidth="23970" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,33 @@
   </si>
   <si>
     <t>needExp</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>critRate</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>skillHurtAdd</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -53,6 +80,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,30 +109,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,76 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,9 +161,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,8 +214,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +239,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,169 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,17 +444,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,11 +477,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,186 +530,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1012,18 +1044,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1067,32 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1044,544 +1102,1744 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>300</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>120</v>
+      </c>
+      <c r="E3" s="4">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.021</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.525</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.525</v>
+      </c>
+      <c r="J3" s="3">
+        <v>390</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>900</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <v>140</v>
+      </c>
+      <c r="E4" s="4">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.022</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="J4" s="3">
+        <v>480</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>1600</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3">
+        <v>160</v>
+      </c>
+      <c r="E5" s="4">
+        <v>160</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.023</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.575</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.575</v>
+      </c>
+      <c r="J5" s="3">
+        <v>570</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3">
+        <v>180</v>
+      </c>
+      <c r="E6" s="4">
+        <v>180</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.024</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="3">
+        <v>660</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3600</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.025</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="J7" s="3">
+        <v>750</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>4900</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3">
+        <v>220</v>
+      </c>
+      <c r="E8" s="4">
+        <v>220</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.026</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="J8" s="3">
+        <v>840</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>6400</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3">
+        <v>240</v>
+      </c>
+      <c r="E9" s="4">
+        <v>240</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.027</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.675</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.675</v>
+      </c>
+      <c r="J9" s="3">
+        <v>930</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>8100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3">
+        <v>260</v>
+      </c>
+      <c r="E10" s="4">
+        <v>260</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.028</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1020</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3">
+        <v>280</v>
+      </c>
+      <c r="E11" s="4">
+        <v>280</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.029</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.725</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.725</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1110</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>12100</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="4">
+        <v>300</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>14400</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3">
+        <v>320</v>
+      </c>
+      <c r="E13" s="4">
+        <v>320</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.031</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.775</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.775</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1290</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>16900</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <v>340</v>
+      </c>
+      <c r="E14" s="4">
+        <v>340</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.032</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1380</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>19600</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <v>360</v>
+      </c>
+      <c r="E15" s="4">
+        <v>360</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.033</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.825</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.825</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1470</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>22500</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <v>380</v>
+      </c>
+      <c r="E16" s="4">
+        <v>380</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.034</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1560</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>25600</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="4">
+        <v>400</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.035</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1650</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>28900</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <v>420</v>
+      </c>
+      <c r="E18" s="4">
+        <v>420</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.036</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1740</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>32400</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <v>440</v>
+      </c>
+      <c r="E19" s="4">
+        <v>440</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.037</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.925</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.925</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1830</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>36100</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <v>460</v>
+      </c>
+      <c r="E20" s="4">
+        <v>460</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.038</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1920</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>40000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <v>480</v>
+      </c>
+      <c r="E21" s="4">
+        <v>480</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.039</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.975</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.975</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2010</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>44100</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="4">
+        <v>500</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>48400</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3">
+        <v>520</v>
+      </c>
+      <c r="E23" s="4">
+        <v>520</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.041</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.025</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.025</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2190</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>52900</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3">
+        <v>540</v>
+      </c>
+      <c r="E24" s="4">
+        <v>540</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.042</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2280</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>57600</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3">
+        <v>560</v>
+      </c>
+      <c r="E25" s="4">
+        <v>560</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.043</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.075</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.075</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2370</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>62500</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3">
+        <v>580</v>
+      </c>
+      <c r="E26" s="4">
+        <v>580</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.044</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2460</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>67600</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="4">
+        <v>600</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.045</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.125</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2550</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>72900</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3">
+        <v>620</v>
+      </c>
+      <c r="E28" s="4">
+        <v>620</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.046</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1.15</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.15</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2640</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>78400</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3">
+        <v>640</v>
+      </c>
+      <c r="E29" s="4">
+        <v>640</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.047</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1.175</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.175</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2730</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>84100</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3">
+        <v>660</v>
+      </c>
+      <c r="E30" s="4">
+        <v>660</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.048</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2820</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>90000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3">
+        <v>680</v>
+      </c>
+      <c r="E31" s="4">
+        <v>680</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.049</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.225</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.225</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2910</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>96100</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="4">
+        <v>700</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>102400</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3">
+        <v>720</v>
+      </c>
+      <c r="E33" s="4">
+        <v>720</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.051</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.275</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.275</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3090</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>108900</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3">
+        <v>740</v>
+      </c>
+      <c r="E34" s="4">
+        <v>740</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.052</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3180</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>115600</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3">
+        <v>760</v>
+      </c>
+      <c r="E35" s="4">
+        <v>760</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.053</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1.325</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.325</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3270</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>122500</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3">
+        <v>780</v>
+      </c>
+      <c r="E36" s="4">
+        <v>780</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.054</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3360</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>129600</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="3">
+        <v>800</v>
+      </c>
+      <c r="E37" s="4">
+        <v>800</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.055</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1.375</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3450</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>136900</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3">
+        <v>820</v>
+      </c>
+      <c r="E38" s="4">
+        <v>820</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.056</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3540</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>144400</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="3">
+        <v>840</v>
+      </c>
+      <c r="E39" s="4">
+        <v>840</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.057</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1.425</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.425</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3630</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>152100</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3">
+        <v>860</v>
+      </c>
+      <c r="E40" s="4">
+        <v>860</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.058</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3720</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>160000</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3">
+        <v>880</v>
+      </c>
+      <c r="E41" s="4">
+        <v>880</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.059</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1.475</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1.475</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3810</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1.475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>168100</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="4">
+        <v>900</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>176400</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3">
+        <v>920</v>
+      </c>
+      <c r="E43" s="4">
+        <v>920</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.061</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1.525</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.525</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3990</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1.525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>184900</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3">
+        <v>940</v>
+      </c>
+      <c r="E44" s="4">
+        <v>940</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.062</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4080</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>193600</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3">
+        <v>960</v>
+      </c>
+      <c r="E45" s="4">
+        <v>960</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.063</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1.575</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.575</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4170</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>202500</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="3">
+        <v>980</v>
+      </c>
+      <c r="E46" s="4">
+        <v>980</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.064</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4260</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>211600</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.065</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1.625</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.625</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4350</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>220900</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="3">
+        <v>1020</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1020</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.066</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4440</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>230400</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1040</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.067</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1.675</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1.675</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4530</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>240100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="3">
+        <v>1060</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1060</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.068</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4620</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>250000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1080</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.069</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1.725</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1.725</v>
+      </c>
+      <c r="J51" s="3">
+        <v>4710</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.725</v>
       </c>
     </row>
   </sheetData>
